--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="medbert" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pubmed_fulltext" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -727,4 +728,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11.09_15.05</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74358976</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.3473054</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.88860106</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.605428</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>109</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4524634343882402</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11.09_15.12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.7692308</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.4477612</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9205527</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.67264575</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>74</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7905744456996521</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11.09_15.20</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.8974359</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.40229884</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9032815</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.7201646</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9615</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3261</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1544</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>104</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2570580299943686</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11.09_15.27</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.9493671</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.28301886</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.83246976</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.6454389</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2714</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>190</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.559229406217734</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="medbert" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pubmed_fulltext" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="basebert" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1038,4 +1039,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12.09_07.24</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.67948717</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.31360948</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8782383</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.55093557</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5506901529928049</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12.09_07.32</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.84615386</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.24535316</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.81433505</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.56798625</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>203</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6618889508148035</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12.09_07.39</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.7948718</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.40789473</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9084629</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.66810346</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16</v>
+      </c>
+      <c r="M4" t="n">
+        <v>90</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2444947691013416</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12.09_07.47</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.87341774</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.2509091</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8134715</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.5837563</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>206</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.668503071491917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -10,6 +10,7 @@
     <sheet name="medbert" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pubmed_fulltext" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="basebert" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="basebert1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1349,4 +1350,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18.09_09.50</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.71794873</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.23140496</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.82038</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.50541514</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22</v>
+      </c>
+      <c r="M2" t="n">
+        <v>186</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5986553269128004</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18.09_10.00</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.8076923</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.23684211</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8117444</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.5449827</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>203</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7180119156837463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18.09_10.12</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.8717949</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.32380953</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8687392</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.651341</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>142</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8751945644617081</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18.09_10.25</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.8101266</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.24521072</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8169257</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.5545927</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>197</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8309154734015465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -11,6 +11,7 @@
     <sheet name="pubmed_fulltext" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="basebert" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="basebert1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="medbert1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1660,4 +1661,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18.09_11.56</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.64935064</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.28089887</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8647469</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.5144033</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>27</v>
+      </c>
+      <c r="M2" t="n">
+        <v>128</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6564610414206982</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18.09_12.10</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.8051948</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.31958762</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.87172776</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.61752987</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>132</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5011956257124742</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18.09_12.24</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.8831169</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.3090909</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8595113</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.6439394</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2298</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2207</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>152</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4681512216726939</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18.09_12.38</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.8717949</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.272</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.83246076</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.6049822</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>182</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5822798783580462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -12,6 +12,7 @@
     <sheet name="basebert" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="basebert1" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="medbert1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="medbert2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1971,4 +1972,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19.09_09.08</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.6363636</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.35766423</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8987784</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.5505618</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28</v>
+      </c>
+      <c r="M2" t="n">
+        <v>88</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7052134337524573</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19.09_09.15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.7922078</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.36746988</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8944154</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.6434599</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>105</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3302207328379154</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19.09_09.23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.8701299</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.34358975</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.87958115</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.666004</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>128</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7126566295822462</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19.09_09.30</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.7948718</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.3668639</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.89267015</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.64449066</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16</v>
+      </c>
+      <c r="M5" t="n">
+        <v>107</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3642424587160349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="medbert" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="biobert" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -727,4 +728,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19.09_12.18</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.77922076</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.3314917</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.87958115</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.61349696</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>121</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7215998373154936</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19.09_12.28</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.76623374</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.39072847</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.904014</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.6427015</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>92</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5377456813023008</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19.09_12.37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9220779</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.3622449</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8856894</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.7043651</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3136</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5137119941284944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19.09_12.45</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.9102564</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.33809525</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8726004</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.6800766</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1075</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>139</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5940037405696409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="medbert" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="biobert" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="scibert" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1038,4 +1039,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19.09_13.06</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74025977</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.3607595</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8944154</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.611588</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>101</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7340966044314976</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19.09_13.14</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.7922078</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.38607594</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.90139616</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.65450644</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>97</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5038886648956044</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19.09_13.23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9350649</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.34951457</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.87870854</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.7003891</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>134</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5431836103570873</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19.09_13.31</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.85897434</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.37222221</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.89179754</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.6808943</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>113</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.614712508331085</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -10,6 +10,7 @@
     <sheet name="medbert" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="biobert" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="scibert" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="pubmed_abstract" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1349,4 +1350,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19.09_13.43</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.84415585</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.23465703</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.80453753</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.5555556</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="n">
+        <v>212</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7358470150622828</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19.09_13.52</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.84415585</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.40625</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.90663177</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.6944444</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>95</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4657992655090217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19.09_14.00</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9350649</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.40449437</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9031414</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.7407407</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>106</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4251930371312232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19.09_14.09</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.85897434</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.37853107</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8944154</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.6850716</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>110</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5954569096452204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -11,6 +11,7 @@
     <sheet name="biobert" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="scibert" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="pubmed_abstract" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pubmed_fulltext" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1660,4 +1661,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.09_08.20</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.84415585</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.2434457</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.81326354</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.5652174</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="n">
+        <v>202</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6489474064317243</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.09_08.36</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.8181818</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.4256757</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.91361254</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.69078946</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4715879330861157</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.09_08.50</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9350649</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.41379312</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.90663177</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.746888</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3231</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1072</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>102</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4580843649033842</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.09_09.07</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.88461536</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.36898395</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.88917977</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.69138277</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>118</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5768135778991312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -12,6 +12,7 @@
     <sheet name="scibert" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="pubmed_abstract" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="pubmed_fulltext" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="basebert" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1971,4 +1972,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.09_09.39</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.8701299</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.13814433</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6265271</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.4224464</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="n">
+        <v>418</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.857280308830327</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.09_09.57</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.7922078</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.27232143</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.84380454</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.5733083</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>163</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.735029846943658</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.09_10.11</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.8961039</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.31506848</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.86212915</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.65464896</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2159</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1316</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>150</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5861482787235029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.09_10.29</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.8076923</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.21799308</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7897033</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.52412647</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>226</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7295413274189522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -13,6 +13,7 @@
     <sheet name="pubmed_abstract" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="pubmed_fulltext" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="basebert" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="pubmed_fulltext1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2282,4 +2283,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13.10_07.58</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.83870965</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.39245284</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8537964</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.6833114</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>161</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6503305415953359</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13.10_08.10</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.944</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.41114983</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.85783523</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.74968237</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1588</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>169</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6338562801960976</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13.10_08.23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.896</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.4647303</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.88529885</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.7557355</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3096</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1566</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>129</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6794760746340598</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13.10_08.35</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.928</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.43773586</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8723748</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.75816995</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1019</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>149</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5998895616540986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -14,6 +14,7 @@
     <sheet name="pubmed_fulltext" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="basebert" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="pubmed_fulltext1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="pubmed_fulltext2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2593,4 +2594,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13.10_09.26</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.8467742</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.41501975</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.86510503</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.7009346</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>148</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6406238003964385</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13.10_09.41</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.42910448</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.868336</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.74869794</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2996</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>153</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7133551667774877</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13.10_09.58</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.928</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.4566929</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8812601</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.7692308</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1213</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>138</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5740149182177359</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13.10_10.16</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.944</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.43223444</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8691438</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.76326</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4906</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>155</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5730994257234758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -15,6 +15,7 @@
     <sheet name="basebert" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="pubmed_fulltext1" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="pubmed_fulltext2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="pubmed_abstract1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2904,4 +2905,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13.10_12.47</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.8145161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.42259413</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.86995155</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.68707484</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23</v>
+      </c>
+      <c r="M2" t="n">
+        <v>138</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6199945750976762</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13.10_13.04</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.952</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.40614334</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8546042</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.75031525</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4132</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5175</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>174</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6661016244080759</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13.10_13.22</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.896</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.5185185</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9054927</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.7821229</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4013</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1221</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>104</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5539444332882282</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13.10_13.40</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.928</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.38666666</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8441034</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.725</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3136</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>184</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5715775415301323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="pubmed_fulltext" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pubmed_fulltext1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -727,4 +728,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.10_12.55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.7983871</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.4248927</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8715671</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.67901236</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>134</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6426771340831634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.10_13.03</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.952</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.3753943</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8352181</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.72827417</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2382</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>198</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.653300256258057</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.10_13.14</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.928</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.50877196</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.90226173</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.7967033</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>112</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5833132187685659</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.10_13.31</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.944</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.44360903</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.87479806</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.770235</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3876</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2444</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>148</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5899924039840698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_SD.xlsx
+++ b/Kfolds/Kfold_results_SD.xlsx
@@ -1,37 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmy\Documents\BME1\Stage\ESA\BERTCSRS\Kfolds\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A595918E-337B-45DC-8D2D-524F37ED75AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pubmed_fulltext" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pubmed_fulltext" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Fold</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Fbeta</t>
+  </si>
+  <si>
+    <t>Best Recall</t>
+  </si>
+  <si>
+    <t>Best Precision</t>
+  </si>
+  <si>
+    <t>Best Threshold</t>
+  </si>
+  <si>
+    <t>False Neg(0.5)</t>
+  </si>
+  <si>
+    <t>False Pos(0.5)</t>
+  </si>
+  <si>
+    <t>Val loss</t>
+  </si>
+  <si>
+    <t>fold_0</t>
+  </si>
+  <si>
+    <t>20.10_14.25</t>
+  </si>
+  <si>
+    <t>fold_1</t>
+  </si>
+  <si>
+    <t>20.10_14.35</t>
+  </si>
+  <si>
+    <t>fold_2</t>
+  </si>
+  <si>
+    <t>20.10_14.42</t>
+  </si>
+  <si>
+    <t>fold_3</t>
+  </si>
+  <si>
+    <t>20.10_14.49</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +136,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,308 +461,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fold</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Epoch</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Fbeta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Best Recall</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Best Precision</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Best Threshold</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>False Neg(0.5)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>False Pos(0.5)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Val loss</t>
-        </is>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>fold_0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.10_14.25</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.87903225</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.3811189</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.84491116</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.69693094</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="E2" s="2">
+        <v>0.87903224999999996</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.38111889999999998</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.84491115999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.69693094</v>
+      </c>
+      <c r="I2">
         <v>0.9516</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2227</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="J2">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="L2">
         <v>15</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>177</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.6392165540206817</v>
+      <c r="N2">
+        <v>0.63921655402068167</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>fold_1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.10_14.35</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.936</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.40484428</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8546042</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.7414449</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="E3" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.40484428</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.85460420000000004</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.74144489999999996</v>
+      </c>
+      <c r="I3">
         <v>0.96</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="K3">
         <v>0.4234</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>172</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.6557820468179641</v>
+      <c r="N3">
+        <v>0.65578204681796415</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>fold_2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.10_14.42</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.952</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.4006734</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8513732</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.74654955</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4061</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5283</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="E4" s="2">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.40067340000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.85137320000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.74654955000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.40610000000000002</v>
+      </c>
+      <c r="K4">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>178</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>0.6535699879450183</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>fold_3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.10_14.49</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.896</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.4827586</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.89256865</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.76502734</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="E5" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.48275859999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.89256864999999996</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.76502733999999994</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>13</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>120</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.6252536770076521</v>
+      <c r="N5">
+        <v>0.62525367700765211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:G6" si="0">AVERAGE(E2:E5)</f>
+        <v>0.91575806249999991</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41734879499999999</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8608643024999999</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(H2:H5)</f>
+        <v>0.73748818250000003</v>
+      </c>
+      <c r="L6">
+        <f>SUM(L2:L5)</f>
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <f>SUM(M2:M5)</f>
+        <v>647</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGE(N2:N5)</f>
+        <v>0.64345556644782909</v>
       </c>
     </row>
   </sheetData>
